--- a/biology/Histoire de la zoologie et de la botanique/Benjamin_Stillingfleet/Benjamin_Stillingfleet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Benjamin_Stillingfleet/Benjamin_Stillingfleet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Stillingfleet (1702 - 15 décembre 1771[1]) est un botaniste, traducteur et éditeur britannique. Il est décrit comme le premier bas bleu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Stillingfleet (1702 - 15 décembre 1771) est un botaniste, traducteur et éditeur britannique. Il est décrit comme le premier bas bleu.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Price, dont Gainsborough fit le portrait en 1754, l'accompagna dans ses excursions naturalistes et dessina les gravures de son traité Observations on Grasses, publié en 1762[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Price, dont Gainsborough fit le portrait en 1754, l'accompagna dans ses excursions naturalistes et dessina les gravures de son traité Observations on Grasses, publié en 1762.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Miscellaneous Tracts Relating to Natural History, Husbandry and Physick (1759)
 Paradise Lost: An Oratorio (1760) words by Stillingfleet, music by John Christopher Smith
 Principles and Power of Harmony, (1771) - translation
-Literary life and select works of Benjamin Stillingfleet, (1811)[3]</t>
+Literary life and select works of Benjamin Stillingfleet, (1811)</t>
         </is>
       </c>
     </row>
